--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Desktop\Clase\Jose\TimeTableManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -518,8 +518,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="147.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="140.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="147.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="166.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>Hecho</t>
+  </si>
+  <si>
+    <t>Se coge una maqina vietual con solo el sitema operativo se hace lo que diga el manual de instalacion y tiene que quedar isntalado, manual de usuario y tiene que ejecutarse</t>
+  </si>
+  <si>
+    <t>Instalacion limpia software funciona en un maquina con linux que solo tenga el sitema operativo</t>
+  </si>
+  <si>
+    <t>No se acepta valdiacion de requisitos sin test unitarios</t>
+  </si>
+  <si>
+    <t>Carga de configuracion desde excel argar conf de la aplicación desde hoja de excel</t>
+  </si>
+  <si>
+    <t>Instal app ejecutarla visualizar conf vacia, hacer la carga visualizar conf aparecer lo del excel</t>
+  </si>
+  <si>
+    <t>viernes 7</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -528,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="1" sqref="A4 C4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +561,7 @@
     <col min="4" max="4" width="166.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -577,13 +598,16 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -605,8 +629,11 @@
       <c r="H3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -626,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -648,8 +675,11 @@
       <c r="H5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -669,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -688,8 +718,11 @@
       <c r="H7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -708,8 +741,11 @@
       <c r="H8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -728,8 +764,11 @@
       <c r="H9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -743,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -757,7 +796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -771,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -785,7 +824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -799,7 +838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -813,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -827,7 +866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
@@ -841,7 +880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -852,7 +891,7 @@
         <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -860,8 +899,11 @@
       <c r="H18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -873,6 +915,63 @@
       </c>
       <c r="F19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portatil-pc\Desktop\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Desktop\Clase\Jose\TimeTableManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,31 +179,31 @@
     <t>Hecho</t>
   </si>
   <si>
-    <t>Se coge una maqina vietual con solo el sitema operativo se hace lo que diga el manual de instalacion y tiene que quedar isntalado, manual de usuario y tiene que ejecutarse</t>
-  </si>
-  <si>
-    <t>Instalacion limpia software funciona en un maquina con linux que solo tenga el sitema operativo</t>
-  </si>
-  <si>
     <t>No se acepta valdiacion de requisitos sin test unitarios</t>
   </si>
   <si>
-    <t>Carga de configuracion desde excel argar conf de la aplicación desde hoja de excel</t>
-  </si>
-  <si>
-    <t>Instal app ejecutarla visualizar conf vacia, hacer la carga visualizar conf aparecer lo del excel</t>
-  </si>
-  <si>
     <t>viernes 7</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Instalacion limpia de software, debe funcionar en un maquina con linux que solo tenga el sitema operativo</t>
+  </si>
+  <si>
+    <t>Se coge una maquina virtual con solo el sitema operativo se hace lo que diga el manual de instalacion y tiene que quedar instalado, manual de usuario y tiene que ejecutarse</t>
+  </si>
+  <si>
+    <t>Carga de configuracion desde excel,c argar conf de la aplicación desde hoja de excel</t>
+  </si>
+  <si>
+    <t>Instalar aplicaion, ejecutarla, visualizar conf vacia, hacer la carga visualizar conf aparecer lo del excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,12 +213,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,8 +239,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,14 +558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="147.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="166.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="147.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="166.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -604,7 +611,7 @@
         <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -630,26 +637,26 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -676,26 +683,26 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -719,7 +726,7 @@
         <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -742,7 +749,7 @@
         <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,7 +772,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -900,7 +907,7 @@
         <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -918,11 +925,14 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>19</v>
+      </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -934,32 +944,38 @@
         <v>16</v>
       </c>
       <c r="I20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -971,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -194,10 +194,10 @@
     <t>Se coge una maquina virtual con solo el sitema operativo se hace lo que diga el manual de instalacion y tiene que quedar instalado, manual de usuario y tiene que ejecutarse</t>
   </si>
   <si>
-    <t>Carga de configuracion desde excel,c argar conf de la aplicación desde hoja de excel</t>
-  </si>
-  <si>
     <t>Instalar aplicaion, ejecutarla, visualizar conf vacia, hacer la carga visualizar conf aparecer lo del excel</t>
+  </si>
+  <si>
+    <t>Carga de configuracion desde excel,cargar conf de la aplicación desde hoja de excel</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,10 +972,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Desktop\Clase\Jose\TimeTableManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelnuneztorron/Desktop/TimeTableManager/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -188,9 +191,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>Instalacion limpia de software, debe funcionar en un maquina con linux que solo tenga el sitema operativo</t>
-  </si>
-  <si>
     <t>Se coge una maquina virtual con solo el sitema operativo se hace lo que diga el manual de instalacion y tiene que quedar instalado, manual de usuario y tiene que ejecutarse</t>
   </si>
   <si>
@@ -198,12 +198,15 @@
   </si>
   <si>
     <t>Carga de configuracion desde excel,cargar conf de la aplicación desde hoja de excel</t>
+  </si>
+  <si>
+    <t>Instalacion limpia de software, debe funcionar en un maquina con linux que solo tenga el sistema operativo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,17 +561,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="147.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="166.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="147.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="166.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -614,7 +617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -640,7 +643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -660,7 +663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4</v>
       </c>
@@ -686,7 +689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -706,7 +709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>6</v>
       </c>
@@ -729,7 +732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>7</v>
       </c>
@@ -752,7 +755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>8</v>
       </c>
@@ -775,7 +778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>9</v>
       </c>
@@ -789,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10</v>
       </c>
@@ -803,7 +806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>11</v>
       </c>
@@ -817,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>12</v>
       </c>
@@ -831,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>13</v>
       </c>
@@ -845,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>14</v>
       </c>
@@ -859,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>15</v>
       </c>
@@ -873,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>16</v>
       </c>
@@ -887,7 +890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>17</v>
       </c>
@@ -910,7 +913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>18</v>
       </c>
@@ -924,15 +927,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -947,7 +950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>20</v>
       </c>
@@ -967,15 +970,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelnuneztorron/Desktop/TimeTableManager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="14780"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24495" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -201,13 +201,73 @@
   </si>
   <si>
     <t>Instalacion limpia de software, debe funcionar en un maquina con linux que solo tenga el sistema operativo</t>
+  </si>
+  <si>
+    <t>Construccion automática de la aplicación por linea de comandos</t>
+  </si>
+  <si>
+    <t>Haces un checkout, das el comando para ejecutar y se ejecuta el programa</t>
+  </si>
+  <si>
+    <t>Sesiones con configuracion</t>
+  </si>
+  <si>
+    <t>Que se actualice Java con los repositorios de la distribucion (que no haga falta un repositorio externo)</t>
+  </si>
+  <si>
+    <t>Hacer test en todas las entregas</t>
+  </si>
+  <si>
+    <t>DICIEMBRE</t>
+  </si>
+  <si>
+    <t>Fecha Limite</t>
+  </si>
+  <si>
+    <t>Ningun parámetro de la configuración debe estar fuera de la excel</t>
+  </si>
+  <si>
+    <t>El nombre de la excel se mete por linea de comandos</t>
+  </si>
+  <si>
+    <t>Se ejecuta el programa y la linea de comandos te pide el nobre del documento a utilizar y lo utiliza.</t>
+  </si>
+  <si>
+    <t>Al ejecutarlo, el programa no necesita informacion adicional introducida por el usuario relativa a la configuracion</t>
+  </si>
+  <si>
+    <t>Interfaz web</t>
+  </si>
+  <si>
+    <t>Con la URL podemos acceder al horario con un navegador</t>
+  </si>
+  <si>
+    <t>?????????????</t>
+  </si>
+  <si>
+    <t>???????????</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Viernes 14</t>
+  </si>
+  <si>
+    <t>Prototipo de Interfaz web</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +275,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,9 +314,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,441 +642,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="147.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="166.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" style="1"/>
+    <col min="3" max="4" width="30.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2">
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="3" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B20" s="5">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B21" s="5">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="5">
+        <v>9</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="5">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21">
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>52</v>
+      <c r="I30" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>Prototipo de Interfaz web</t>
+  </si>
+  <si>
+    <t>caca</t>
+  </si>
+  <si>
+    <t>viernes 14</t>
+  </si>
+  <si>
+    <t>Prototipo de motor de reglas para el horario</t>
+  </si>
+  <si>
+    <t>al generar un horario  cumple con los demas requisitos</t>
   </si>
 </sst>
 </file>
@@ -642,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1247,7 +1259,27 @@
         <v>20</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>100</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -273,6 +273,90 @@
   </si>
   <si>
     <t>al generar un horario  cumple con los demas requisitos</t>
+  </si>
+  <si>
+    <t>Hora de descanso --&gt; no introduce gaps/No es seleccionable.</t>
+  </si>
+  <si>
+    <t>Siempre que creamos un horario hay una hora al menos en la que no se coloca ninguna clase.</t>
+  </si>
+  <si>
+    <t>Horas tabú de cada profesor respetadas</t>
+  </si>
+  <si>
+    <t>Un profesor puede marcar horas como tabú, a las que no puede trabajar, al generar un horario, estas horas siempre las tendrá libres.</t>
+  </si>
+  <si>
+    <t>Horas Máx/Min semanales de un profesor</t>
+  </si>
+  <si>
+    <t>Horas Máx/Min diarias de un profesor</t>
+  </si>
+  <si>
+    <t>Horas continuas/dia de un profesor</t>
+  </si>
+  <si>
+    <t>Máx de Gaps por día</t>
+  </si>
+  <si>
+    <t>Un profesor no puede impartir mas de X e Y configurables horas a la semana al generar su horario, se suman sus horas de clase y tienen que ser mayores que x y menores que y</t>
+  </si>
+  <si>
+    <t>Un profesor no puede impartir mas de X e Y configurables horas al dia al generar su horario, se suman sus horas de clase de cada día y todas tienen que ser menores que X y mayores que Y</t>
+  </si>
+  <si>
+    <t>Un profesor no debe tener mas de X (configurable) horas seguidas de clase al generar su horario, se coge su grupo de clases continuas más largo y nos aseguramos de que es menor o igual que X</t>
+  </si>
+  <si>
+    <t>Un profesor no debe tener mas de X horas libres al dia entre su primera y ultima clase al generar su horario. Hora fin - hora inicio - horas de clase &gt;= X</t>
+  </si>
+  <si>
+    <t>Máx de Gaps por semana</t>
+  </si>
+  <si>
+    <t>Se calcula la cantidad de horas libres entre la hora de inicio y ffin de cada dia, se suman y tienen que ser menos que X, configurable.</t>
+  </si>
+  <si>
+    <t>Máx veces un intervalo horario por semana</t>
+  </si>
+  <si>
+    <t>Un profesor puede definir un horario y que dicho horario no se le pueda asignar más de X veces configurable cada semana.</t>
+  </si>
+  <si>
+    <t>Grupos de Alumnos</t>
+  </si>
+  <si>
+    <t>Los alumnos deben estar asignados a grupos para cada asignatura, se comprueba intentando asignar un alumno a una clase sin asignarle grupo y no nos lo permite el programa.</t>
+  </si>
+  <si>
+    <t>Grupos de profesores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los profesores pueden agruparse en grupos, </t>
+  </si>
+  <si>
+    <t>Conjunto de horas preferidas para las sesiones</t>
+  </si>
+  <si>
+    <t>Las sesiones tienen un parámetro al ser asignadas a un horario que pesará para poner, por ejemplo, las sesiones de Redes por la mañana, se pueden poner preferencias de tres maneras: Hora de inicio (preferimos empezar a partir de x hora), hora final (preferimos terminar antes de x hora) o intervalo (preferimos que la hora de inicio sea despues de X y antes que Y)</t>
+  </si>
+  <si>
+    <t>Min/máx de días entre sesiones</t>
+  </si>
+  <si>
+    <t>Para Las asignaturas se puede definir que no pasen más de X días entre una sesión y la siguiente, para comprobarlo introducimos una sesión un día cualquiera y ponemos una sesión mmas allá de cuantos días hayamos establecido con X, si nos avisa y no nos permite colocar así las sesiones la aplicación, será correcto.</t>
+  </si>
+  <si>
+    <t>Sin solapamiento aunque sean de distinto curso</t>
+  </si>
+  <si>
+    <t>Al generar el horario se intenta colocar las asignaturas en huecos libres para asignaturas pertenecientes a un mismo grado en la medida de lo posible aunque las asignaturas a colocar no sean de un mismo curso.</t>
+  </si>
+  <si>
+    <t>Min/máx de gap de horas</t>
+  </si>
+  <si>
+    <t>Las sesiones no pueden estar separadas por mas de X horas de clases configurables.</t>
   </si>
 </sst>
 </file>
@@ -654,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1282,6 +1366,160 @@
         <v>79</v>
       </c>
     </row>
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Las sesiones no pueden estar separadas por mas de X horas de clases configurables.</t>
+  </si>
+  <si>
+    <t>Crear grupos de profesores</t>
+  </si>
+  <si>
+    <t>Todas las restricciones que tenga un profesor se le pueden aplicar a determinado grupo de profesores aunque con un menor peso que las restricciones aplicadas a cada profesor individual (las restricciones individuales sobreescriben a las restricciones de grupo) se comprueba aplicando solo una restriccion a un profesor, una como grupo y esta misma como profesor individual para distintas horas, debe coger siempre la restriccion individual por encima de la del grupo.</t>
   </si>
 </sst>
 </file>
@@ -738,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1520,6 +1526,17 @@
         <v>109</v>
       </c>
     </row>
+    <row r="46" spans="2:4" ht="105" x14ac:dyDescent="0.15">
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24495" windowHeight="14775"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -368,7 +363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +379,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +398,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -416,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,6 +435,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -490,7 +503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -542,7 +555,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -736,7 +749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,14 +759,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
-    <col min="3" max="4" width="30.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="30.5703125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -1376,25 +1389,25 @@
       <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" ht="42" x14ac:dyDescent="0.15">
       <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -1405,22 +1418,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="63" x14ac:dyDescent="0.15">
       <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1438,7 +1451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="42" x14ac:dyDescent="0.15">
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -1449,7 +1462,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4" ht="42" x14ac:dyDescent="0.15">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -1482,7 +1495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="84" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:4" ht="105" x14ac:dyDescent="0.15">
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -1493,7 +1506,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:4" ht="84" x14ac:dyDescent="0.15">
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -1515,7 +1528,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B45" s="1">
         <v>44</v>
       </c>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -273,6 +273,96 @@
   </si>
   <si>
     <t>al generar un horario  cumple con los demas requisitos</t>
+  </si>
+  <si>
+    <t>Hora de descanso --&gt; no introduce gaps/No es seleccionable.</t>
+  </si>
+  <si>
+    <t>Siempre que creamos un horario hay una hora al menos en la que no se coloca ninguna clase.</t>
+  </si>
+  <si>
+    <t>Horas tabú de cada profesor respetadas</t>
+  </si>
+  <si>
+    <t>Un profesor puede marcar horas como tabú, a las que no puede trabajar, al generar un horario, estas horas siempre las tendrá libres.</t>
+  </si>
+  <si>
+    <t>Horas Máx/Min semanales de un profesor</t>
+  </si>
+  <si>
+    <t>Horas Máx/Min diarias de un profesor</t>
+  </si>
+  <si>
+    <t>Horas continuas/dia de un profesor</t>
+  </si>
+  <si>
+    <t>Máx de Gaps por día</t>
+  </si>
+  <si>
+    <t>Un profesor no puede impartir mas de X e Y configurables horas a la semana al generar su horario, se suman sus horas de clase y tienen que ser mayores que x y menores que y</t>
+  </si>
+  <si>
+    <t>Un profesor no puede impartir mas de X e Y configurables horas al dia al generar su horario, se suman sus horas de clase de cada día y todas tienen que ser menores que X y mayores que Y</t>
+  </si>
+  <si>
+    <t>Un profesor no debe tener mas de X (configurable) horas seguidas de clase al generar su horario, se coge su grupo de clases continuas más largo y nos aseguramos de que es menor o igual que X</t>
+  </si>
+  <si>
+    <t>Un profesor no debe tener mas de X horas libres al dia entre su primera y ultima clase al generar su horario. Hora fin - hora inicio - horas de clase &gt;= X</t>
+  </si>
+  <si>
+    <t>Máx de Gaps por semana</t>
+  </si>
+  <si>
+    <t>Se calcula la cantidad de horas libres entre la hora de inicio y ffin de cada dia, se suman y tienen que ser menos que X, configurable.</t>
+  </si>
+  <si>
+    <t>Máx veces un intervalo horario por semana</t>
+  </si>
+  <si>
+    <t>Un profesor puede definir un horario y que dicho horario no se le pueda asignar más de X veces configurable cada semana.</t>
+  </si>
+  <si>
+    <t>Grupos de Alumnos</t>
+  </si>
+  <si>
+    <t>Los alumnos deben estar asignados a grupos para cada asignatura, se comprueba intentando asignar un alumno a una clase sin asignarle grupo y no nos lo permite el programa.</t>
+  </si>
+  <si>
+    <t>Grupos de profesores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los profesores pueden agruparse en grupos, </t>
+  </si>
+  <si>
+    <t>Conjunto de horas preferidas para las sesiones</t>
+  </si>
+  <si>
+    <t>Las sesiones tienen un parámetro al ser asignadas a un horario que pesará para poner, por ejemplo, las sesiones de Redes por la mañana, se pueden poner preferencias de tres maneras: Hora de inicio (preferimos empezar a partir de x hora), hora final (preferimos terminar antes de x hora) o intervalo (preferimos que la hora de inicio sea despues de X y antes que Y)</t>
+  </si>
+  <si>
+    <t>Min/máx de días entre sesiones</t>
+  </si>
+  <si>
+    <t>Para Las asignaturas se puede definir que no pasen más de X días entre una sesión y la siguiente, para comprobarlo introducimos una sesión un día cualquiera y ponemos una sesión mmas allá de cuantos días hayamos establecido con X, si nos avisa y no nos permite colocar así las sesiones la aplicación, será correcto.</t>
+  </si>
+  <si>
+    <t>Sin solapamiento aunque sean de distinto curso</t>
+  </si>
+  <si>
+    <t>Al generar el horario se intenta colocar las asignaturas en huecos libres para asignaturas pertenecientes a un mismo grado en la medida de lo posible aunque las asignaturas a colocar no sean de un mismo curso.</t>
+  </si>
+  <si>
+    <t>Min/máx de gap de horas</t>
+  </si>
+  <si>
+    <t>Las sesiones no pueden estar separadas por mas de X horas de clases configurables.</t>
+  </si>
+  <si>
+    <t>Crear grupos de profesores</t>
+  </si>
+  <si>
+    <t>Todas las restricciones que tenga un profesor se le pueden aplicar a determinado grupo de profesores aunque con un menor peso que las restricciones aplicadas a cada profesor individual (las restricciones individuales sobreescriben a las restricciones de grupo) se comprueba aplicando solo una restriccion a un profesor, una como grupo y esta misma como profesor individual para distintas horas, debe coger siempre la restriccion individual por encima de la del grupo.</t>
   </si>
 </sst>
 </file>
@@ -654,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1282,6 +1372,171 @@
         <v>79</v>
       </c>
     </row>
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="105" x14ac:dyDescent="0.15">
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelnuneztorron/Desktop/TimeTableManager/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24495" windowHeight="14775"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28480" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -368,8 +368,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +383,24 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +419,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -413,10 +441,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -430,8 +512,68 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="55">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -542,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -746,14 +888,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
-    <col min="3" max="4" width="30.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="30.5" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -1172,7 +1314,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.15">
       <c r="B21" s="5">
         <v>20</v>
       </c>
@@ -1278,7 +1420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -1352,7 +1494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="22" x14ac:dyDescent="0.15">
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -1372,29 +1514,29 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="22" x14ac:dyDescent="0.15">
       <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" ht="33" x14ac:dyDescent="0.15">
       <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="44" x14ac:dyDescent="0.15">
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -1405,29 +1547,29 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="44" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="55" x14ac:dyDescent="0.15">
       <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="44" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -1438,7 +1580,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="33" x14ac:dyDescent="0.15">
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -1449,7 +1591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4" ht="33" x14ac:dyDescent="0.15">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -1460,7 +1602,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:4" ht="44" x14ac:dyDescent="0.15">
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -1482,7 +1624,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="84" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:4" ht="88" x14ac:dyDescent="0.15">
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -1493,7 +1635,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:4" ht="77" x14ac:dyDescent="0.15">
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -1504,7 +1646,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:4" ht="55" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -1515,7 +1657,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:4" ht="22" x14ac:dyDescent="0.15">
       <c r="B45" s="1">
         <v>44</v>
       </c>
@@ -1526,7 +1668,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="105" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:4" ht="110" x14ac:dyDescent="0.15">
       <c r="B46" s="1">
         <v>45</v>
       </c>
